--- a/Tables/multiple_loans.xlsx
+++ b/Tables/multiple_loans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5AFF0-ACDA-4C26-85E4-C97E8EB9C315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929CE96-634B-4ACF-87B3-0A3384660938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21660" yWindow="-4650" windowWidth="14340" windowHeight="10650" xr2:uid="{A98E87CB-BB5F-4E21-AAD8-ECB5360891BB}"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="19200" windowHeight="11230" xr2:uid="{A98E87CB-BB5F-4E21-AAD8-ECB5360891BB}"/>
   </bookViews>
   <sheets>
     <sheet name="multiple_loans" sheetId="1" r:id="rId1"/>
@@ -229,10 +229,10 @@
             <v>-39.7***</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-378.8**</v>
+            <v>-373.8**</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-50.5***</v>
+            <v>-50.3***</v>
           </cell>
         </row>
         <row r="9">
@@ -246,7 +246,7 @@
             <v>(6.41)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(149.4)</v>
+            <v>(148.3)</v>
           </cell>
           <cell r="E9" t="str">
             <v>(7.26)</v>
@@ -260,10 +260,10 @@
             <v>1.52</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-121.9</v>
+            <v>-105.1</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.87</v>
+            <v>0.19</v>
           </cell>
         </row>
         <row r="12">
@@ -277,10 +277,10 @@
             <v>(6.43)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(146.2)</v>
+            <v>(146.4)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(7.56)</v>
+            <v>(7.79)</v>
           </cell>
         </row>
         <row r="14">
@@ -343,10 +343,10 @@
             <v>0.038</v>
           </cell>
           <cell r="D21" t="str">
-            <v>0.009</v>
+            <v>0.007</v>
           </cell>
           <cell r="E21" t="str">
-            <v>0.049</v>
+            <v>0.039</v>
           </cell>
           <cell r="F21" t="str">
             <v>0.011</v>
@@ -788,11 +788,11 @@
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]multiple_loans!D8</f>
-        <v>-378.8**</v>
+        <v>-373.8**</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]multiple_loans!E8</f>
-        <v>-50.5***</v>
+        <v>-50.3***</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>[1]multiple_loans!F14</f>
@@ -818,7 +818,7 @@
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]multiple_loans!D9</f>
-        <v>(149.4)</v>
+        <v>(148.3)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]multiple_loans!E9</f>
@@ -847,11 +847,11 @@
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]multiple_loans!D11</f>
-        <v>-121.9</v>
+        <v>-105.1</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]multiple_loans!E11</f>
-        <v>-0.87</v>
+        <v>0.19</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]multiple_loans!F17</f>
@@ -877,11 +877,11 @@
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]multiple_loans!D12</f>
-        <v>(146.2)</v>
+        <v>(146.4)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]multiple_loans!E12</f>
-        <v>(7.56)</v>
+        <v>(7.79)</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>[1]multiple_loans!F18</f>
@@ -937,11 +937,11 @@
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]multiple_loans!D21</f>
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]multiple_loans!E21</f>
-        <v>0.049</v>
+        <v>0.039</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>[1]multiple_loans!F21</f>

--- a/Tables/multiple_loans.xlsx
+++ b/Tables/multiple_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929CE96-634B-4ACF-87B3-0A3384660938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18383A2-8712-4FD9-8C96-BC0D69AAF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="19200" windowHeight="11230" xr2:uid="{A98E87CB-BB5F-4E21-AAD8-ECB5360891BB}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{A98E87CB-BB5F-4E21-AAD8-ECB5360891BB}"/>
   </bookViews>
   <sheets>
     <sheet name="multiple_loans" sheetId="1" r:id="rId1"/>
@@ -223,16 +223,16 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-378.5***</v>
+            <v>-379.5***</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-39.7***</v>
+            <v>-40.0***</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-373.8**</v>
+            <v>-375.4**</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-50.3***</v>
+            <v>-50.7***</v>
           </cell>
         </row>
         <row r="9">
@@ -243,27 +243,27 @@
             <v>(135.4)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(6.41)</v>
+            <v>(6.40)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(148.3)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(7.26)</v>
+            <v>(7.24)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-160.6</v>
+            <v>-160.1</v>
           </cell>
           <cell r="C11" t="str">
-            <v>1.52</v>
+            <v>1.53</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-105.1</v>
+            <v>-105.3</v>
           </cell>
           <cell r="E11" t="str">
-            <v>0.19</v>
+            <v>0.075</v>
           </cell>
         </row>
         <row r="12">
@@ -271,24 +271,24 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(128.6)</v>
+            <v>(128.7)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(6.43)</v>
+            <v>(6.42)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(146.4)</v>
+            <v>(146.3)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(7.79)</v>
+            <v>(7.77)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14" t="str">
-            <v>-336.0***</v>
+            <v>-337.3***</v>
           </cell>
           <cell r="G14" t="str">
-            <v>-39.9***</v>
+            <v>-40.2***</v>
           </cell>
         </row>
         <row r="15">
@@ -301,18 +301,18 @@
         </row>
         <row r="17">
           <cell r="F17" t="str">
-            <v>-55.0</v>
+            <v>-55.5</v>
           </cell>
           <cell r="G17" t="str">
-            <v>-4.35</v>
+            <v>-4.47</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18" t="str">
-            <v>(124.8)</v>
+            <v>(124.7)</v>
           </cell>
           <cell r="G18" t="str">
-            <v>(6.03)</v>
+            <v>(6.01)</v>
           </cell>
         </row>
         <row r="20">
@@ -360,22 +360,22 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B22" t="str">
-            <v>3270.6</v>
+            <v>3271.8</v>
           </cell>
           <cell r="C22" t="str">
-            <v>248.7</v>
+            <v>249.0</v>
           </cell>
           <cell r="D22" t="str">
-            <v>3298.2</v>
+            <v>3299.7</v>
           </cell>
           <cell r="E22" t="str">
-            <v>257.6</v>
+            <v>258.0</v>
           </cell>
           <cell r="F22" t="str">
-            <v>3209.3</v>
+            <v>3210.9</v>
           </cell>
           <cell r="G22" t="str">
-            <v>252.4</v>
+            <v>252.8</v>
           </cell>
         </row>
       </sheetData>
@@ -780,27 +780,27 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]multiple_loans!B8</f>
-        <v>-378.5***</v>
+        <v>-379.5***</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]multiple_loans!C8</f>
-        <v>-39.7***</v>
+        <v>-40.0***</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]multiple_loans!D8</f>
-        <v>-373.8**</v>
+        <v>-375.4**</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]multiple_loans!E8</f>
-        <v>-50.3***</v>
+        <v>-50.7***</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>[1]multiple_loans!F14</f>
-        <v>-336.0***</v>
+        <v>-337.3***</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>[1]multiple_loans!G14</f>
-        <v>-39.9***</v>
+        <v>-40.2***</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -814,7 +814,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]multiple_loans!C9</f>
-        <v>(6.41)</v>
+        <v>(6.40)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]multiple_loans!D9</f>
@@ -822,7 +822,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]multiple_loans!E9</f>
-        <v>(7.26)</v>
+        <v>(7.24)</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]multiple_loans!F15</f>
@@ -839,27 +839,27 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]multiple_loans!B11</f>
-        <v>-160.6</v>
+        <v>-160.1</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]multiple_loans!C11</f>
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]multiple_loans!D11</f>
-        <v>-105.1</v>
+        <v>-105.3</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]multiple_loans!E11</f>
-        <v>0.19</v>
+        <v>0.075</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]multiple_loans!F17</f>
-        <v>-55.0</v>
+        <v>-55.5</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]multiple_loans!G17</f>
-        <v>-4.35</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -869,27 +869,27 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]multiple_loans!B12</f>
-        <v>(128.6)</v>
+        <v>(128.7)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]multiple_loans!C12</f>
-        <v>(6.43)</v>
+        <v>(6.42)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]multiple_loans!D12</f>
-        <v>(146.4)</v>
+        <v>(146.3)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]multiple_loans!E12</f>
-        <v>(7.79)</v>
+        <v>(7.77)</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>[1]multiple_loans!F18</f>
-        <v>(124.8)</v>
+        <v>(124.7)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]multiple_loans!G18</f>
-        <v>(6.03)</v>
+        <v>(6.01)</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -959,29 +959,29 @@
       </c>
       <c r="B12" s="7" t="str">
         <f>[1]multiple_loans!B22</f>
-        <v>3270.6</v>
+        <v>3271.8</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>[1]multiple_loans!C22</f>
-        <v>248.7</v>
+        <v>249.0</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="str">
         <f>[1]multiple_loans!D22</f>
-        <v>3298.2</v>
+        <v>3299.7</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>[1]multiple_loans!E22</f>
-        <v>257.6</v>
+        <v>258.0</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="str">
         <f>[1]multiple_loans!F22</f>
-        <v>3209.3</v>
+        <v>3210.9</v>
       </c>
       <c r="I12" s="7" t="str">
         <f>[1]multiple_loans!G22</f>
-        <v>252.4</v>
+        <v>252.8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/multiple_loans.xlsx
+++ b/Tables/multiple_loans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18383A2-8712-4FD9-8C96-BC0D69AAF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41633BCA-393D-4C4C-B0F3-2F8E6BCCE7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{A98E87CB-BB5F-4E21-AAD8-ECB5360891BB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>R-squared</t>
   </si>
@@ -66,6 +66,18 @@
   <si>
     <t>APR</t>
   </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Consolidated outcomes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Control Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -128,9 +140,16 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -142,14 +161,27 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,11 +198,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -220,19 +260,79 @@
           <cell r="G2" t="str">
             <v>(6)</v>
           </cell>
+          <cell r="H2" t="str">
+            <v>(7)</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>(8)</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>(9)</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>(10)</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>(11)</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>(12)</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>(13)</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>(14)</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>(15)</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>(16)</v>
+          </cell>
+          <cell r="R2" t="str">
+            <v>(17)</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>(18)</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-379.5***</v>
+            <v>-408.0***</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-40.0***</v>
+            <v>-39.9***</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-375.4**</v>
+            <v>-0.12***</v>
           </cell>
           <cell r="E8" t="str">
+            <v>-373.0**</v>
+          </cell>
+          <cell r="F8" t="str">
             <v>-50.7***</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>-0.16***</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>-1026.1***</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>-38.7***</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>-0.13***</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>-896.9***</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>-47.6***</v>
+          </cell>
+          <cell r="P8" t="str">
+            <v>-0.16***</v>
           </cell>
         </row>
         <row r="9">
@@ -240,30 +340,78 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(135.4)</v>
+            <v>(134.9)</v>
           </cell>
           <cell r="C9" t="str">
             <v>(6.40)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(148.3)</v>
+            <v>(0.022)</v>
           </cell>
           <cell r="E9" t="str">
+            <v>(148.7)</v>
+          </cell>
+          <cell r="F9" t="str">
             <v>(7.24)</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>(0.026)</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>(219.8)</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>(5.44)</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>(222.2)</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>(6.12)</v>
+          </cell>
+          <cell r="P9" t="str">
+            <v>(0.020)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-160.1</v>
+            <v>-159.5</v>
           </cell>
           <cell r="C11" t="str">
-            <v>1.53</v>
+            <v>1.62</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-105.3</v>
+            <v>-0.0022</v>
           </cell>
           <cell r="E11" t="str">
-            <v>0.075</v>
+            <v>-103.2</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>0.079</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>-0.011</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>-345.9</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>-4.35</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>-0.022</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>-222.3</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>-6.35</v>
+          </cell>
+          <cell r="P11" t="str">
+            <v>-0.037*</v>
           </cell>
         </row>
         <row r="12">
@@ -271,88 +419,241 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(128.7)</v>
+            <v>(128.9)</v>
           </cell>
           <cell r="C12" t="str">
             <v>(6.42)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(146.3)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(7.77)</v>
+            <v>(146.6)</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>(7.76)</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>(0.024)</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v/>
+          </cell>
+          <cell r="I12" t="str">
+            <v/>
+          </cell>
+          <cell r="J12" t="str">
+            <v/>
+          </cell>
+          <cell r="K12" t="str">
+            <v>(234.4)</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>(5.18)</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>(0.017)</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>(237.1)</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>(5.94)</v>
+          </cell>
+          <cell r="P12" t="str">
+            <v>(0.020)</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="F14" t="str">
-            <v>-337.3***</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>-40.2***</v>
+          <cell r="H14" t="str">
+            <v>-339.5***</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>-40.4***</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>-0.12***</v>
+          </cell>
+          <cell r="Q14" t="str">
+            <v>-793.2***</v>
+          </cell>
+          <cell r="R14" t="str">
+            <v>-42.0***</v>
+          </cell>
+          <cell r="S14" t="str">
+            <v>-0.14***</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="F15" t="str">
-            <v>(121.2)</v>
-          </cell>
-          <cell r="G15" t="str">
+          <cell r="H15" t="str">
+            <v>(121.4)</v>
+          </cell>
+          <cell r="I15" t="str">
             <v>(5.91)</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>(0.022)</v>
+          </cell>
+          <cell r="Q15" t="str">
+            <v>(194.8)</v>
+          </cell>
+          <cell r="R15" t="str">
+            <v>(5.20)</v>
+          </cell>
+          <cell r="S15" t="str">
+            <v>(0.017)</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="F17" t="str">
-            <v>-55.5</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>-4.47</v>
+          <cell r="H17" t="str">
+            <v>-55.1</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>-4.62</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>-0.030</v>
+          </cell>
+          <cell r="Q17" t="str">
+            <v>-1.41</v>
+          </cell>
+          <cell r="R17" t="str">
+            <v>-12.0**</v>
+          </cell>
+          <cell r="S17" t="str">
+            <v>-0.051***</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="F18" t="str">
-            <v>(124.7)</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>(6.01)</v>
+          <cell r="H18" t="str">
+            <v>(124.9)</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>(6.00)</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="Q18" t="str">
+            <v>(241.7)</v>
+          </cell>
+          <cell r="R18" t="str">
+            <v>(4.77)</v>
+          </cell>
+          <cell r="S18" t="str">
+            <v>(0.016)</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>8519</v>
+            <v>8510</v>
           </cell>
           <cell r="C20" t="str">
-            <v>8519</v>
+            <v>8510</v>
           </cell>
           <cell r="D20" t="str">
-            <v>6304</v>
+            <v>8510</v>
           </cell>
           <cell r="E20" t="str">
-            <v>6304</v>
+            <v>6299</v>
           </cell>
           <cell r="F20" t="str">
-            <v>8813</v>
+            <v>6299</v>
           </cell>
           <cell r="G20" t="str">
-            <v>8813</v>
+            <v>6299</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>8806</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>8806</v>
+          </cell>
+          <cell r="J20" t="str">
+            <v>8806</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>5941</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>5941</v>
+          </cell>
+          <cell r="M20" t="str">
+            <v>5941</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>4438</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>4438</v>
+          </cell>
+          <cell r="P20" t="str">
+            <v>4438</v>
+          </cell>
+          <cell r="Q20" t="str">
+            <v>6102</v>
+          </cell>
+          <cell r="R20" t="str">
+            <v>6102</v>
+          </cell>
+          <cell r="S20" t="str">
+            <v>6102</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>0.009</v>
+            <v>0.010</v>
           </cell>
           <cell r="C21" t="str">
             <v>0.038</v>
           </cell>
           <cell r="D21" t="str">
+            <v>0.021</v>
+          </cell>
+          <cell r="E21" t="str">
             <v>0.007</v>
           </cell>
-          <cell r="E21" t="str">
+          <cell r="F21" t="str">
             <v>0.039</v>
           </cell>
-          <cell r="F21" t="str">
+          <cell r="G21" t="str">
+            <v>0.024</v>
+          </cell>
+          <cell r="H21" t="str">
             <v>0.011</v>
           </cell>
-          <cell r="G21" t="str">
+          <cell r="I21" t="str">
             <v>0.035</v>
+          </cell>
+          <cell r="J21" t="str">
+            <v>0.022</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>0.013</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>0.032</v>
+          </cell>
+          <cell r="M21" t="str">
+            <v>0.020</v>
+          </cell>
+          <cell r="N21" t="str">
+            <v>0.012</v>
+          </cell>
+          <cell r="O21" t="str">
+            <v>0.035</v>
+          </cell>
+          <cell r="P21" t="str">
+            <v>0.024</v>
+          </cell>
+          <cell r="Q21" t="str">
+            <v>0.014</v>
+          </cell>
+          <cell r="R21" t="str">
+            <v>0.030</v>
+          </cell>
+          <cell r="S21" t="str">
+            <v>0.022</v>
           </cell>
         </row>
         <row r="22">
@@ -360,22 +661,58 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B22" t="str">
-            <v>3271.8</v>
+            <v>3270.6</v>
           </cell>
           <cell r="C22" t="str">
-            <v>249.0</v>
+            <v>249.1</v>
           </cell>
           <cell r="D22" t="str">
-            <v>3299.7</v>
+            <v>0.56</v>
           </cell>
           <cell r="E22" t="str">
-            <v>258.0</v>
+            <v>3297.9</v>
           </cell>
           <cell r="F22" t="str">
-            <v>3210.9</v>
+            <v>258.1</v>
           </cell>
           <cell r="G22" t="str">
-            <v>252.8</v>
+            <v>0.59</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>3211.0</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>252.9</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>0.58</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>4853.3</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>242.7</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>0.57</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>4755.9</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>248.5</v>
+          </cell>
+          <cell r="P22" t="str">
+            <v>0.59</v>
+          </cell>
+          <cell r="Q22" t="str">
+            <v>4676.9</v>
+          </cell>
+          <cell r="R22" t="str">
+            <v>246.9</v>
+          </cell>
+          <cell r="S22" t="str">
+            <v>0.59</v>
           </cell>
         </row>
       </sheetData>
@@ -681,23 +1018,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33343832-DF2A-498F-AC55-2F7A19B9832A}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I12"/>
+      <selection activeCell="A2" sqref="A2:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="2.453125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="5.7265625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="4.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -707,42 +1043,59 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="str">
         <f>[1]multiple_loans!A2</f>
         <v/>
@@ -755,241 +1108,833 @@
         <f>[1]multiple_loans!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="str">
+      <c r="D4" s="6" t="str">
         <f>[1]multiple_loans!D2</f>
         <v>(3)</v>
       </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6" t="str">
         <f>[1]multiple_loans!E2</f>
         <v>(4)</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="str">
+      <c r="G4" s="6" t="str">
         <f>[1]multiple_loans!F2</f>
         <v>(5)</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="H4" s="6" t="str">
         <f>[1]multiple_loans!G2</f>
         <v>(6)</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="str">
+        <f>[1]multiple_loans!H2</f>
+        <v>(7)</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f>[1]multiple_loans!I2</f>
+        <v>(8)</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f>[1]multiple_loans!J2</f>
+        <v>(9)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]multiple_loans!B8</f>
-        <v>-379.5***</v>
+        <v>-408.0***</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]multiple_loans!C8</f>
-        <v>-40.0***</v>
-      </c>
-      <c r="E5" s="1" t="str">
+        <v>-39.9***</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f>[1]multiple_loans!D8</f>
-        <v>-375.4**</v>
+        <v>-0.12***</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]multiple_loans!E8</f>
+        <v>-373.0**</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>[1]multiple_loans!F8</f>
         <v>-50.7***</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>[1]multiple_loans!F14</f>
-        <v>-337.3***</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>[1]multiple_loans!G14</f>
-        <v>-40.2***</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <f>[1]multiple_loans!G8</f>
+        <v>-0.16***</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>[1]multiple_loans!H14</f>
+        <v>-339.5***</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>[1]multiple_loans!I14</f>
+        <v>-40.4***</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>[1]multiple_loans!J14</f>
+        <v>-0.12***</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]multiple_loans!A9</f>
         <v/>
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]multiple_loans!B9</f>
-        <v>(135.4)</v>
+        <v>(134.9)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]multiple_loans!C9</f>
         <v>(6.40)</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="D6" s="1" t="str">
         <f>[1]multiple_loans!D9</f>
-        <v>(148.3)</v>
+        <v>(0.022)</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]multiple_loans!E9</f>
+        <v>(148.7)</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>[1]multiple_loans!F9</f>
         <v>(7.24)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>[1]multiple_loans!F15</f>
-        <v>(121.2)</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f>[1]multiple_loans!G15</f>
+        <f>[1]multiple_loans!G9</f>
+        <v>(0.026)</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>[1]multiple_loans!H15</f>
+        <v>(121.4)</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>[1]multiple_loans!I15</f>
         <v>(5.91)</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L6" s="1" t="str">
+        <f>[1]multiple_loans!J15</f>
+        <v>(0.022)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]multiple_loans!B11</f>
-        <v>-160.1</v>
+        <v>-159.5</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]multiple_loans!C11</f>
-        <v>1.53</v>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>1.62</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <f>[1]multiple_loans!D11</f>
-        <v>-105.3</v>
+        <v>-0.0022</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]multiple_loans!E11</f>
-        <v>0.075</v>
+        <v>-103.2</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>[1]multiple_loans!F11</f>
+        <v>0.079</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>[1]multiple_loans!F17</f>
-        <v>-55.5</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f>[1]multiple_loans!G17</f>
-        <v>-4.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <f>[1]multiple_loans!G11</f>
+        <v>-0.011</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>[1]multiple_loans!H17</f>
+        <v>-55.1</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>[1]multiple_loans!I17</f>
+        <v>-4.62</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>[1]multiple_loans!J17</f>
+        <v>-0.030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]multiple_loans!A12</f>
         <v/>
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]multiple_loans!B12</f>
-        <v>(128.7)</v>
+        <v>(128.9)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]multiple_loans!C12</f>
         <v>(6.42)</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="D8" s="1" t="str">
         <f>[1]multiple_loans!D12</f>
-        <v>(146.3)</v>
+        <v>(0.019)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]multiple_loans!E12</f>
-        <v>(7.77)</v>
+        <v>(146.6)</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>[1]multiple_loans!F12</f>
+        <v>(7.76)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>[1]multiple_loans!F18</f>
-        <v>(124.7)</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>[1]multiple_loans!G18</f>
-        <v>(6.01)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <f>[1]multiple_loans!G12</f>
+        <v>(0.024)</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>[1]multiple_loans!H18</f>
+        <v>(124.9)</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>[1]multiple_loans!I18</f>
+        <v>(6.00)</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>[1]multiple_loans!J18</f>
+        <v>(0.019)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J9" s="1" t="str">
+        <f>[1]multiple_loans!H12</f>
+        <v/>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>[1]multiple_loans!I12</f>
+        <v/>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>[1]multiple_loans!J12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="9" t="str">
         <f>[1]multiple_loans!B20</f>
-        <v>8519</v>
+        <v>8510</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>[1]multiple_loans!C20</f>
-        <v>8519</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="str">
+        <v>8510</v>
+      </c>
+      <c r="D10" s="9" t="str">
         <f>[1]multiple_loans!D20</f>
-        <v>6304</v>
-      </c>
+        <v>8510</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="9" t="str">
         <f>[1]multiple_loans!E20</f>
-        <v>6304</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>6299</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f>[1]multiple_loans!F20</f>
+        <v>6299</v>
+      </c>
       <c r="H10" s="9" t="str">
-        <f>[1]multiple_loans!F20</f>
-        <v>8813</v>
-      </c>
-      <c r="I10" s="9" t="str">
         <f>[1]multiple_loans!G20</f>
-        <v>8813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6299</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="str">
+        <f>[1]multiple_loans!H20</f>
+        <v>8806</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f>[1]multiple_loans!I20</f>
+        <v>8806</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f>[1]multiple_loans!J20</f>
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]multiple_loans!B21</f>
-        <v>0.009</v>
+        <v>0.010</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]multiple_loans!C21</f>
         <v>0.038</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="D11" s="1" t="str">
         <f>[1]multiple_loans!D21</f>
-        <v>0.007</v>
+        <v>0.021</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]multiple_loans!E21</f>
+        <v>0.007</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>[1]multiple_loans!F21</f>
         <v>0.039</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>[1]multiple_loans!F21</f>
+        <f>[1]multiple_loans!G21</f>
+        <v>0.024</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f>[1]multiple_loans!H21</f>
         <v>0.011</v>
       </c>
-      <c r="I11" s="1" t="str">
-        <f>[1]multiple_loans!G21</f>
+      <c r="K11" s="1" t="str">
+        <f>[1]multiple_loans!I21</f>
         <v>0.035</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="1" t="str">
+        <f>[1]multiple_loans!J21</f>
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="str">
         <f>[1]multiple_loans!A22</f>
         <v>Control Mean</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>[1]multiple_loans!B22</f>
-        <v>3271.8</v>
+        <v>3270.6</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>[1]multiple_loans!C22</f>
-        <v>249.0</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="str">
+        <v>249.1</v>
+      </c>
+      <c r="D12" s="7" t="str">
         <f>[1]multiple_loans!D22</f>
-        <v>3299.7</v>
-      </c>
+        <v>0.56</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7" t="str">
         <f>[1]multiple_loans!E22</f>
-        <v>258.0</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>3297.9</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f>[1]multiple_loans!F22</f>
+        <v>258.1</v>
+      </c>
       <c r="H12" s="7" t="str">
-        <f>[1]multiple_loans!F22</f>
-        <v>3210.9</v>
-      </c>
-      <c r="I12" s="7" t="str">
         <f>[1]multiple_loans!G22</f>
-        <v>252.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>0.59</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="str">
+        <f>[1]multiple_loans!H22</f>
+        <v>3211.0</v>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f>[1]multiple_loans!I22</f>
+        <v>252.9</v>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f>[1]multiple_loans!J22</f>
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>[1]multiple_loans!K2</f>
+        <v>(10)</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>[1]multiple_loans!L2</f>
+        <v>(11)</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>[1]multiple_loans!M2</f>
+        <v>(12)</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="str">
+        <f>[1]multiple_loans!N2</f>
+        <v>(13)</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f>[1]multiple_loans!O2</f>
+        <v>(14)</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f>[1]multiple_loans!P2</f>
+        <v>(15)</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="str">
+        <f>[1]multiple_loans!Q2</f>
+        <v>(16)</v>
+      </c>
+      <c r="K17" s="6" t="str">
+        <f>[1]multiple_loans!R2</f>
+        <v>(17)</v>
+      </c>
+      <c r="L17" s="6" t="str">
+        <f>[1]multiple_loans!S2</f>
+        <v>(18)</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>[1]multiple_loans!K8</f>
+        <v>-1026.1***</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>[1]multiple_loans!L8</f>
+        <v>-38.7***</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>[1]multiple_loans!M8</f>
+        <v>-0.13***</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>[1]multiple_loans!N8</f>
+        <v>-896.9***</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>[1]multiple_loans!O8</f>
+        <v>-47.6***</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>[1]multiple_loans!P8</f>
+        <v>-0.16***</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f>[1]multiple_loans!Q14</f>
+        <v>-793.2***</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>[1]multiple_loans!R14</f>
+        <v>-42.0***</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f>[1]multiple_loans!S14</f>
+        <v>-0.14***</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>[1]multiple_loans!K9</f>
+        <v>(219.8)</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>[1]multiple_loans!L9</f>
+        <v>(5.44)</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>[1]multiple_loans!M9</f>
+        <v>(0.019)</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>[1]multiple_loans!N9</f>
+        <v>(222.2)</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>[1]multiple_loans!O9</f>
+        <v>(6.12)</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>[1]multiple_loans!P9</f>
+        <v>(0.020)</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>[1]multiple_loans!Q15</f>
+        <v>(194.8)</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>[1]multiple_loans!R15</f>
+        <v>(5.20)</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f>[1]multiple_loans!S15</f>
+        <v>(0.017)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>[1]multiple_loans!K11</f>
+        <v>-345.9</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>[1]multiple_loans!L11</f>
+        <v>-4.35</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>[1]multiple_loans!M11</f>
+        <v>-0.022</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>[1]multiple_loans!N11</f>
+        <v>-222.3</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>[1]multiple_loans!O11</f>
+        <v>-6.35</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>[1]multiple_loans!P11</f>
+        <v>-0.037*</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f>[1]multiple_loans!Q17</f>
+        <v>-1.41</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>[1]multiple_loans!R17</f>
+        <v>-12.0**</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f>[1]multiple_loans!S17</f>
+        <v>-0.051***</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>[1]multiple_loans!K12</f>
+        <v>(234.4)</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>[1]multiple_loans!L12</f>
+        <v>(5.18)</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>[1]multiple_loans!M12</f>
+        <v>(0.017)</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>[1]multiple_loans!N12</f>
+        <v>(237.1)</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>[1]multiple_loans!O12</f>
+        <v>(5.94)</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>[1]multiple_loans!P12</f>
+        <v>(0.020)</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f>[1]multiple_loans!Q18</f>
+        <v>(241.7)</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>[1]multiple_loans!R18</f>
+        <v>(4.77)</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f>[1]multiple_loans!S18</f>
+        <v>(0.016)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>[1]multiple_loans!K20</f>
+        <v>5941</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f>[1]multiple_loans!L20</f>
+        <v>5941</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f>[1]multiple_loans!M20</f>
+        <v>5941</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="str">
+        <f>[1]multiple_loans!N20</f>
+        <v>4438</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f>[1]multiple_loans!O20</f>
+        <v>4438</v>
+      </c>
+      <c r="H23" s="9" t="str">
+        <f>[1]multiple_loans!P20</f>
+        <v>4438</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="str">
+        <f>[1]multiple_loans!Q20</f>
+        <v>6102</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f>[1]multiple_loans!R20</f>
+        <v>6102</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f>[1]multiple_loans!S20</f>
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>[1]multiple_loans!K21</f>
+        <v>0.013</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>[1]multiple_loans!L21</f>
+        <v>0.032</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>[1]multiple_loans!M21</f>
+        <v>0.020</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>[1]multiple_loans!N21</f>
+        <v>0.012</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>[1]multiple_loans!O21</f>
+        <v>0.035</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>[1]multiple_loans!P21</f>
+        <v>0.024</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f>[1]multiple_loans!Q21</f>
+        <v>0.014</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>[1]multiple_loans!R21</f>
+        <v>0.030</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f>[1]multiple_loans!S21</f>
+        <v>0.022</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f>[1]multiple_loans!K22</f>
+        <v>4853.3</v>
+      </c>
+      <c r="C25" s="7" t="str">
+        <f>[1]multiple_loans!L22</f>
+        <v>242.7</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f>[1]multiple_loans!M22</f>
+        <v>0.57</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="str">
+        <f>[1]multiple_loans!N22</f>
+        <v>4755.9</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f>[1]multiple_loans!O22</f>
+        <v>248.5</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>[1]multiple_loans!P22</f>
+        <v>0.59</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="str">
+        <f>[1]multiple_loans!Q22</f>
+        <v>4676.9</v>
+      </c>
+      <c r="K25" s="7" t="str">
+        <f>[1]multiple_loans!R22</f>
+        <v>246.9</v>
+      </c>
+      <c r="L25" s="7" t="str">
+        <f>[1]multiple_loans!S22</f>
+        <v>0.59</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
+  <mergeCells count="7">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/multiple_loans.xlsx
+++ b/Tables/multiple_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA5FC70-0C97-40F4-88B3-8C9810CECADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A6A9F-C7D0-418D-8DC8-8E19CD0AE8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18195" yWindow="-12390" windowWidth="19185" windowHeight="11265" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
   </bookViews>
   <sheets>
     <sheet name="multiple_loans" sheetId="1" r:id="rId1"/>
@@ -62,13 +62,13 @@
     <t>Recovery</t>
   </si>
   <si>
-    <t>Baseline approach</t>
+    <t>First treatment (ITT)</t>
   </si>
   <si>
-    <t>First treatment</t>
+    <t>Multiple visits - multiple treatments</t>
   </si>
   <si>
-    <t>ITT</t>
+    <t>First visit (Baseline approach)</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -149,11 +149,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +186,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,8 +207,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="multiple_loans"/>
     </sheetNames>
@@ -245,28 +260,28 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-325.9***</v>
+            <v>-379.9***</v>
           </cell>
           <cell r="C8" t="str">
+            <v>-0.34***</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>0.14***</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>-0.064***</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>-328.1***</v>
+          </cell>
+          <cell r="G8" t="str">
             <v>-0.20***</v>
           </cell>
-          <cell r="D8" t="str">
+          <cell r="H8" t="str">
             <v>0.099***</v>
           </cell>
-          <cell r="E8" t="str">
-            <v>-0.031</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>-380.0***</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>-0.33***</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>0.14***</v>
-          </cell>
           <cell r="I8" t="str">
-            <v>-0.063***</v>
+            <v>-0.032</v>
           </cell>
         </row>
         <row r="9">
@@ -274,54 +289,54 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
+            <v>(111.4)</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>(0.081)</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>(0.025)</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>(0.023)</v>
+          </cell>
+          <cell r="F9" t="str">
             <v>(94.5)</v>
           </cell>
-          <cell r="C9" t="str">
-            <v>(0.070)</v>
-          </cell>
-          <cell r="D9" t="str">
+          <cell r="G9" t="str">
+            <v>(0.071)</v>
+          </cell>
+          <cell r="H9" t="str">
             <v>(0.021)</v>
           </cell>
-          <cell r="E9" t="str">
+          <cell r="I9" t="str">
             <v>(0.020)</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>(112.1)</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>(0.081)</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>(0.024)</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>(0.023)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-70.4</v>
+            <v>-78.8</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.026</v>
+            <v>-0.10</v>
           </cell>
           <cell r="D11" t="str">
+            <v>0.0094</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>-0.023</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>-71.0</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>-0.024</v>
+          </cell>
+          <cell r="H11" t="str">
             <v>0.00054</v>
           </cell>
-          <cell r="E11" t="str">
-            <v>-0.0049</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>-86.4</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>-0.098</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>0.011</v>
-          </cell>
           <cell r="I11" t="str">
-            <v>-0.022</v>
+            <v>-0.0046</v>
           </cell>
         </row>
         <row r="12">
@@ -329,33 +344,33 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(94.1)</v>
+            <v>(114.5)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.064)</v>
+            <v>(0.074)</v>
           </cell>
           <cell r="D12" t="str">
+            <v>(0.022)</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>(0.021)</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>(94.2)</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>(0.065)</v>
+          </cell>
+          <cell r="H12" t="str">
             <v>(0.018)</v>
           </cell>
-          <cell r="E12" t="str">
+          <cell r="I12" t="str">
             <v>(0.018)</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>(114.3)</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>(0.073)</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>(0.021)</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>(0.021)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="J14" t="str">
-            <v>-283.1***</v>
+            <v>-285.3***</v>
           </cell>
           <cell r="K14" t="str">
             <v>-0.27***</v>
@@ -369,10 +384,10 @@
         </row>
         <row r="15">
           <cell r="J15" t="str">
-            <v>(91.8)</v>
+            <v>(91.6)</v>
           </cell>
           <cell r="K15" t="str">
-            <v>(0.065)</v>
+            <v>(0.066)</v>
           </cell>
           <cell r="L15" t="str">
             <v>(0.021)</v>
@@ -383,7 +398,7 @@
         </row>
         <row r="17">
           <cell r="J17" t="str">
-            <v>-104.5</v>
+            <v>-105.0</v>
           </cell>
           <cell r="K17" t="str">
             <v>-0.13**</v>
@@ -400,7 +415,7 @@
             <v>(91.9)</v>
           </cell>
           <cell r="K18" t="str">
-            <v>(0.058)</v>
+            <v>(0.059)</v>
           </cell>
           <cell r="L18" t="str">
             <v>(0.018)</v>
@@ -411,28 +426,28 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
+            <v>6304</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>6304</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>6304</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>6304</v>
+          </cell>
+          <cell r="F20" t="str">
             <v>8519</v>
           </cell>
-          <cell r="C20" t="str">
+          <cell r="G20" t="str">
             <v>8519</v>
           </cell>
-          <cell r="D20" t="str">
+          <cell r="H20" t="str">
             <v>8519</v>
           </cell>
-          <cell r="E20" t="str">
+          <cell r="I20" t="str">
             <v>8519</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>6304</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v>6304</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>6304</v>
-          </cell>
-          <cell r="I20" t="str">
-            <v>6304</v>
           </cell>
           <cell r="J20" t="str">
             <v>8813</v>
@@ -452,28 +467,28 @@
             <v>R-sq</v>
           </cell>
           <cell r="B21" t="str">
+            <v>0.007</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>0.011</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>0.019</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>0.013</v>
+          </cell>
+          <cell r="F21" t="str">
             <v>0.010</v>
           </cell>
-          <cell r="C21" t="str">
-            <v>0.007</v>
-          </cell>
-          <cell r="D21" t="str">
+          <cell r="G21" t="str">
+            <v>0.008</v>
+          </cell>
+          <cell r="H21" t="str">
             <v>0.018</v>
           </cell>
-          <cell r="E21" t="str">
+          <cell r="I21" t="str">
             <v>0.010</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>0.008</v>
-          </cell>
-          <cell r="G21" t="str">
-            <v>0.012</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v>0.025</v>
-          </cell>
-          <cell r="I21" t="str">
-            <v>0.015</v>
           </cell>
           <cell r="J21" t="str">
             <v>0.011</v>
@@ -493,31 +508,31 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B22" t="str">
-            <v>1792.4</v>
+            <v>1850.6</v>
           </cell>
           <cell r="C22" t="str">
-            <v>1.73</v>
+            <v>1.83</v>
           </cell>
           <cell r="D22" t="str">
+            <v>0.43</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>0.43</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>1794.4</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>1.74</v>
+          </cell>
+          <cell r="H22" t="str">
             <v>0.46</v>
           </cell>
-          <cell r="E22" t="str">
+          <cell r="I22" t="str">
             <v>0.42</v>
           </cell>
-          <cell r="F22" t="str">
-            <v>1847.7</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>1.83</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>0.43</v>
-          </cell>
-          <cell r="I22" t="str">
-            <v>0.43</v>
-          </cell>
           <cell r="J22" t="str">
-            <v>1804.1</v>
+            <v>1805.7</v>
           </cell>
           <cell r="K22" t="str">
             <v>1.82</v>
@@ -835,7 +850,7 @@
   <dimension ref="A3:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="A4:O14"/>
+      <selection activeCell="A4" sqref="A4:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,12 +877,12 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
@@ -875,7 +890,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -981,39 +996,39 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]multiple_loans!B8</f>
-        <v>-325.9***</v>
+        <v>-379.9***</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]multiple_loans!C8</f>
-        <v>-0.20***</v>
+        <v>-0.34***</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]multiple_loans!D8</f>
-        <v>0.099***</v>
+        <v>0.14***</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]multiple_loans!E8</f>
-        <v>-0.031</v>
+        <v>-0.064***</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]multiple_loans!F8</f>
-        <v>-380.0***</v>
+        <v>-328.1***</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]multiple_loans!G8</f>
-        <v>-0.33***</v>
+        <v>-0.20***</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]multiple_loans!H8</f>
-        <v>0.14***</v>
+        <v>0.099***</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]multiple_loans!I8</f>
-        <v>-0.063***</v>
+        <v>-0.032</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>[1]multiple_loans!J14</f>
-        <v>-283.1***</v>
+        <v>-285.3***</v>
       </c>
       <c r="M7" s="1" t="str">
         <f>[1]multiple_loans!K14</f>
@@ -1035,43 +1050,43 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]multiple_loans!B9</f>
-        <v>(94.5)</v>
+        <v>(111.4)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]multiple_loans!C9</f>
-        <v>(0.070)</v>
+        <v>(0.081)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]multiple_loans!D9</f>
-        <v>(0.021)</v>
+        <v>(0.025)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]multiple_loans!E9</f>
-        <v>(0.020)</v>
+        <v>(0.023)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]multiple_loans!F9</f>
-        <v>(112.1)</v>
+        <v>(94.5)</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>[1]multiple_loans!G9</f>
-        <v>(0.081)</v>
+        <v>(0.071)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]multiple_loans!H9</f>
-        <v>(0.024)</v>
+        <v>(0.021)</v>
       </c>
       <c r="J8" s="1" t="str">
         <f>[1]multiple_loans!I9</f>
-        <v>(0.023)</v>
+        <v>(0.020)</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>[1]multiple_loans!J15</f>
-        <v>(91.8)</v>
+        <v>(91.6)</v>
       </c>
       <c r="M8" s="1" t="str">
         <f>[1]multiple_loans!K15</f>
-        <v>(0.065)</v>
+        <v>(0.066)</v>
       </c>
       <c r="N8" s="1" t="str">
         <f>[1]multiple_loans!L15</f>
@@ -1088,39 +1103,39 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>[1]multiple_loans!B11</f>
-        <v>-70.4</v>
+        <v>-78.8</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]multiple_loans!C11</f>
-        <v>-0.026</v>
+        <v>-0.10</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]multiple_loans!D11</f>
-        <v>0.00054</v>
+        <v>0.0094</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>[1]multiple_loans!E11</f>
-        <v>-0.0049</v>
+        <v>-0.023</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>[1]multiple_loans!F11</f>
-        <v>-86.4</v>
+        <v>-71.0</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>[1]multiple_loans!G11</f>
-        <v>-0.098</v>
+        <v>-0.024</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]multiple_loans!H11</f>
-        <v>0.011</v>
+        <v>0.00054</v>
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]multiple_loans!I11</f>
-        <v>-0.022</v>
+        <v>-0.0046</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>[1]multiple_loans!J17</f>
-        <v>-104.5</v>
+        <v>-105.0</v>
       </c>
       <c r="M9" s="1" t="str">
         <f>[1]multiple_loans!K17</f>
@@ -1142,35 +1157,35 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]multiple_loans!B12</f>
-        <v>(94.1)</v>
+        <v>(114.5)</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]multiple_loans!C12</f>
-        <v>(0.064)</v>
+        <v>(0.074)</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]multiple_loans!D12</f>
-        <v>(0.018)</v>
+        <v>(0.022)</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]multiple_loans!E12</f>
-        <v>(0.018)</v>
+        <v>(0.021)</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]multiple_loans!F12</f>
-        <v>(114.3)</v>
+        <v>(94.2)</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]multiple_loans!G12</f>
-        <v>(0.073)</v>
+        <v>(0.065)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>[1]multiple_loans!H12</f>
-        <v>(0.021)</v>
+        <v>(0.018)</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>[1]multiple_loans!I12</f>
-        <v>(0.021)</v>
+        <v>(0.018)</v>
       </c>
       <c r="L10" s="1" t="str">
         <f>[1]multiple_loans!J18</f>
@@ -1178,7 +1193,7 @@
       </c>
       <c r="M10" s="1" t="str">
         <f>[1]multiple_loans!K18</f>
-        <v>(0.058)</v>
+        <v>(0.059)</v>
       </c>
       <c r="N10" s="1" t="str">
         <f>[1]multiple_loans!L18</f>
@@ -1195,36 +1210,36 @@
       </c>
       <c r="B12" s="8" t="str">
         <f>[1]multiple_loans!B20</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="C12" s="8" t="str">
         <f>[1]multiple_loans!C20</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="D12" s="8" t="str">
         <f>[1]multiple_loans!D20</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>[1]multiple_loans!E20</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="str">
         <f>[1]multiple_loans!F20</f>
-        <v>6304</v>
+        <v>8519</v>
       </c>
       <c r="H12" s="8" t="str">
         <f>[1]multiple_loans!G20</f>
-        <v>6304</v>
+        <v>8519</v>
       </c>
       <c r="I12" s="8" t="str">
         <f>[1]multiple_loans!H20</f>
-        <v>6304</v>
+        <v>8519</v>
       </c>
       <c r="J12" s="8" t="str">
         <f>[1]multiple_loans!I20</f>
-        <v>6304</v>
+        <v>8519</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="str">
@@ -1251,35 +1266,35 @@
       </c>
       <c r="B13" s="1" t="str">
         <f>[1]multiple_loans!B21</f>
-        <v>0.010</v>
+        <v>0.007</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]multiple_loans!C21</f>
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]multiple_loans!D21</f>
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>[1]multiple_loans!E21</f>
-        <v>0.010</v>
+        <v>0.013</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>[1]multiple_loans!F21</f>
-        <v>0.008</v>
+        <v>0.010</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>[1]multiple_loans!G21</f>
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]multiple_loans!H21</f>
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>[1]multiple_loans!I21</f>
-        <v>0.015</v>
+        <v>0.010</v>
       </c>
       <c r="L13" s="1" t="str">
         <f>[1]multiple_loans!J21</f>
@@ -1305,41 +1320,41 @@
       </c>
       <c r="B14" s="9" t="str">
         <f>[1]multiple_loans!B22</f>
-        <v>1792.4</v>
+        <v>1850.6</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>[1]multiple_loans!C22</f>
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="D14" s="9" t="str">
         <f>[1]multiple_loans!D22</f>
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="E14" s="9" t="str">
         <f>[1]multiple_loans!E22</f>
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="str">
         <f>[1]multiple_loans!F22</f>
-        <v>1847.7</v>
+        <v>1794.4</v>
       </c>
       <c r="H14" s="9" t="str">
         <f>[1]multiple_loans!G22</f>
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]multiple_loans!H22</f>
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="J14" s="9" t="str">
         <f>[1]multiple_loans!I22</f>
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="str">
         <f>[1]multiple_loans!J22</f>
-        <v>1804.1</v>
+        <v>1805.7</v>
       </c>
       <c r="M14" s="9" t="str">
         <f>[1]multiple_loans!K22</f>
@@ -1357,9 +1372,9 @@
     <row r="15" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/multiple_loans.xlsx
+++ b/Tables/multiple_loans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A6A9F-C7D0-418D-8DC8-8E19CD0AE8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D44809-83F9-4D59-A3BC-FC93A46D427C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
+    <workbookView xWindow="-16230" yWindow="-10815" windowWidth="14400" windowHeight="8175" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
   </bookViews>
   <sheets>
     <sheet name="multiple_loans" sheetId="1" r:id="rId1"/>
@@ -260,22 +260,22 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-379.9***</v>
+            <v>-202.8***</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.34***</v>
+            <v>-0.11***</v>
           </cell>
           <cell r="D8" t="str">
             <v>0.14***</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.064***</v>
+            <v>-0.065***</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-328.1***</v>
+            <v>-175.2***</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.20***</v>
+            <v>-0.078***</v>
           </cell>
           <cell r="H8" t="str">
             <v>0.099***</v>
@@ -289,10 +289,10 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(111.4)</v>
+            <v>(48.1)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.081)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.025)</v>
@@ -301,10 +301,10 @@
             <v>(0.023)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(94.5)</v>
+            <v>(42.8)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.071)</v>
+            <v>(0.017)</v>
           </cell>
           <cell r="H9" t="str">
             <v>(0.021)</v>
@@ -315,28 +315,28 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-78.8</v>
+            <v>-39.6</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.10</v>
+            <v>-0.0089</v>
           </cell>
           <cell r="D11" t="str">
             <v>0.0094</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.023</v>
+            <v>-0.024</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-71.0</v>
+            <v>-34.4</v>
           </cell>
           <cell r="G11" t="str">
-            <v>-0.024</v>
+            <v>0.0028</v>
           </cell>
           <cell r="H11" t="str">
             <v>0.00054</v>
           </cell>
           <cell r="I11" t="str">
-            <v>-0.0046</v>
+            <v>-0.0049</v>
           </cell>
         </row>
         <row r="12">
@@ -344,10 +344,10 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(114.5)</v>
+            <v>(49.8)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.074)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="D12" t="str">
             <v>(0.022)</v>
@@ -356,10 +356,10 @@
             <v>(0.021)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>(94.2)</v>
+            <v>(43.5)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>(0.065)</v>
+            <v>(0.016)</v>
           </cell>
           <cell r="H12" t="str">
             <v>(0.018)</v>
@@ -370,10 +370,10 @@
         </row>
         <row r="14">
           <cell r="J14" t="str">
-            <v>-285.3***</v>
+            <v>-159.1***</v>
           </cell>
           <cell r="K14" t="str">
-            <v>-0.27***</v>
+            <v>-0.086***</v>
           </cell>
           <cell r="L14" t="str">
             <v>0.11***</v>
@@ -384,10 +384,10 @@
         </row>
         <row r="15">
           <cell r="J15" t="str">
-            <v>(91.6)</v>
+            <v>(38.6)</v>
           </cell>
           <cell r="K15" t="str">
-            <v>(0.066)</v>
+            <v>(0.015)</v>
           </cell>
           <cell r="L15" t="str">
             <v>(0.021)</v>
@@ -398,10 +398,10 @@
         </row>
         <row r="17">
           <cell r="J17" t="str">
-            <v>-105.0</v>
+            <v>-31.5</v>
           </cell>
           <cell r="K17" t="str">
-            <v>-0.13**</v>
+            <v>-0.017</v>
           </cell>
           <cell r="L17" t="str">
             <v>0.029</v>
@@ -412,10 +412,10 @@
         </row>
         <row r="18">
           <cell r="J18" t="str">
-            <v>(91.9)</v>
+            <v>(40.4)</v>
           </cell>
           <cell r="K18" t="str">
-            <v>(0.059)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="L18" t="str">
             <v>(0.018)</v>
@@ -467,10 +467,10 @@
             <v>R-sq</v>
           </cell>
           <cell r="B21" t="str">
-            <v>0.007</v>
+            <v>0.013</v>
           </cell>
           <cell r="C21" t="str">
-            <v>0.011</v>
+            <v>0.031</v>
           </cell>
           <cell r="D21" t="str">
             <v>0.019</v>
@@ -479,10 +479,10 @@
             <v>0.013</v>
           </cell>
           <cell r="F21" t="str">
-            <v>0.010</v>
+            <v>0.016</v>
           </cell>
           <cell r="G21" t="str">
-            <v>0.008</v>
+            <v>0.032</v>
           </cell>
           <cell r="H21" t="str">
             <v>0.018</v>
@@ -491,10 +491,10 @@
             <v>0.010</v>
           </cell>
           <cell r="J21" t="str">
-            <v>0.011</v>
+            <v>0.016</v>
           </cell>
           <cell r="K21" t="str">
-            <v>0.012</v>
+            <v>0.031</v>
           </cell>
           <cell r="L21" t="str">
             <v>0.020</v>
@@ -508,22 +508,22 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B22" t="str">
-            <v>1850.6</v>
+            <v>941.3</v>
           </cell>
           <cell r="C22" t="str">
-            <v>1.83</v>
+            <v>0.57</v>
           </cell>
           <cell r="D22" t="str">
             <v>0.43</v>
           </cell>
           <cell r="E22" t="str">
-            <v>0.43</v>
+            <v>0.44</v>
           </cell>
           <cell r="F22" t="str">
-            <v>1794.4</v>
+            <v>905.7</v>
           </cell>
           <cell r="G22" t="str">
-            <v>1.74</v>
+            <v>0.54</v>
           </cell>
           <cell r="H22" t="str">
             <v>0.46</v>
@@ -532,10 +532,10 @@
             <v>0.42</v>
           </cell>
           <cell r="J22" t="str">
-            <v>1805.7</v>
+            <v>904.7</v>
           </cell>
           <cell r="K22" t="str">
-            <v>1.82</v>
+            <v>0.55</v>
           </cell>
           <cell r="L22" t="str">
             <v>0.44</v>
@@ -996,11 +996,11 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]multiple_loans!B8</f>
-        <v>-379.9***</v>
+        <v>-202.8***</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]multiple_loans!C8</f>
-        <v>-0.34***</v>
+        <v>-0.11***</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]multiple_loans!D8</f>
@@ -1008,15 +1008,15 @@
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]multiple_loans!E8</f>
-        <v>-0.064***</v>
+        <v>-0.065***</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]multiple_loans!F8</f>
-        <v>-328.1***</v>
+        <v>-175.2***</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]multiple_loans!G8</f>
-        <v>-0.20***</v>
+        <v>-0.078***</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]multiple_loans!H8</f>
@@ -1028,11 +1028,11 @@
       </c>
       <c r="L7" s="1" t="str">
         <f>[1]multiple_loans!J14</f>
-        <v>-285.3***</v>
+        <v>-159.1***</v>
       </c>
       <c r="M7" s="1" t="str">
         <f>[1]multiple_loans!K14</f>
-        <v>-0.27***</v>
+        <v>-0.086***</v>
       </c>
       <c r="N7" s="1" t="str">
         <f>[1]multiple_loans!L14</f>
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]multiple_loans!B9</f>
-        <v>(111.4)</v>
+        <v>(48.1)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]multiple_loans!C9</f>
-        <v>(0.081)</v>
+        <v>(0.019)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]multiple_loans!D9</f>
@@ -1066,11 +1066,11 @@
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]multiple_loans!F9</f>
-        <v>(94.5)</v>
+        <v>(42.8)</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>[1]multiple_loans!G9</f>
-        <v>(0.071)</v>
+        <v>(0.017)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]multiple_loans!H9</f>
@@ -1082,11 +1082,11 @@
       </c>
       <c r="L8" s="1" t="str">
         <f>[1]multiple_loans!J15</f>
-        <v>(91.6)</v>
+        <v>(38.6)</v>
       </c>
       <c r="M8" s="1" t="str">
         <f>[1]multiple_loans!K15</f>
-        <v>(0.066)</v>
+        <v>(0.015)</v>
       </c>
       <c r="N8" s="1" t="str">
         <f>[1]multiple_loans!L15</f>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>[1]multiple_loans!B11</f>
-        <v>-78.8</v>
+        <v>-39.6</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]multiple_loans!C11</f>
-        <v>-0.10</v>
+        <v>-0.0089</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]multiple_loans!D11</f>
@@ -1115,15 +1115,15 @@
       </c>
       <c r="E9" s="1" t="str">
         <f>[1]multiple_loans!E11</f>
-        <v>-0.023</v>
+        <v>-0.024</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>[1]multiple_loans!F11</f>
-        <v>-71.0</v>
+        <v>-34.4</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>[1]multiple_loans!G11</f>
-        <v>-0.024</v>
+        <v>0.0028</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]multiple_loans!H11</f>
@@ -1131,15 +1131,15 @@
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]multiple_loans!I11</f>
-        <v>-0.0046</v>
+        <v>-0.0049</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>[1]multiple_loans!J17</f>
-        <v>-105.0</v>
+        <v>-31.5</v>
       </c>
       <c r="M9" s="1" t="str">
         <f>[1]multiple_loans!K17</f>
-        <v>-0.13**</v>
+        <v>-0.017</v>
       </c>
       <c r="N9" s="1" t="str">
         <f>[1]multiple_loans!L17</f>
@@ -1157,11 +1157,11 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]multiple_loans!B12</f>
-        <v>(114.5)</v>
+        <v>(49.8)</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]multiple_loans!C12</f>
-        <v>(0.074)</v>
+        <v>(0.019)</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]multiple_loans!D12</f>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]multiple_loans!F12</f>
-        <v>(94.2)</v>
+        <v>(43.5)</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]multiple_loans!G12</f>
-        <v>(0.065)</v>
+        <v>(0.016)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>[1]multiple_loans!H12</f>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="L10" s="1" t="str">
         <f>[1]multiple_loans!J18</f>
-        <v>(91.9)</v>
+        <v>(40.4)</v>
       </c>
       <c r="M10" s="1" t="str">
         <f>[1]multiple_loans!K18</f>
-        <v>(0.059)</v>
+        <v>(0.014)</v>
       </c>
       <c r="N10" s="1" t="str">
         <f>[1]multiple_loans!L18</f>
@@ -1266,11 +1266,11 @@
       </c>
       <c r="B13" s="1" t="str">
         <f>[1]multiple_loans!B21</f>
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]multiple_loans!C21</f>
-        <v>0.011</v>
+        <v>0.031</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]multiple_loans!D21</f>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="G13" s="1" t="str">
         <f>[1]multiple_loans!F21</f>
-        <v>0.010</v>
+        <v>0.016</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>[1]multiple_loans!G21</f>
-        <v>0.008</v>
+        <v>0.032</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]multiple_loans!H21</f>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="L13" s="1" t="str">
         <f>[1]multiple_loans!J21</f>
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="M13" s="1" t="str">
         <f>[1]multiple_loans!K21</f>
-        <v>0.012</v>
+        <v>0.031</v>
       </c>
       <c r="N13" s="1" t="str">
         <f>[1]multiple_loans!L21</f>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="B14" s="9" t="str">
         <f>[1]multiple_loans!B22</f>
-        <v>1850.6</v>
+        <v>941.3</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>[1]multiple_loans!C22</f>
-        <v>1.83</v>
+        <v>0.57</v>
       </c>
       <c r="D14" s="9" t="str">
         <f>[1]multiple_loans!D22</f>
@@ -1332,16 +1332,16 @@
       </c>
       <c r="E14" s="9" t="str">
         <f>[1]multiple_loans!E22</f>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="str">
         <f>[1]multiple_loans!F22</f>
-        <v>1794.4</v>
+        <v>905.7</v>
       </c>
       <c r="H14" s="9" t="str">
         <f>[1]multiple_loans!G22</f>
-        <v>1.74</v>
+        <v>0.54</v>
       </c>
       <c r="I14" s="9" t="str">
         <f>[1]multiple_loans!H22</f>
@@ -1354,11 +1354,11 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="str">
         <f>[1]multiple_loans!J22</f>
-        <v>1805.7</v>
+        <v>904.7</v>
       </c>
       <c r="M14" s="9" t="str">
         <f>[1]multiple_loans!K22</f>
-        <v>1.82</v>
+        <v>0.55</v>
       </c>
       <c r="N14" s="9" t="str">
         <f>[1]multiple_loans!L22</f>

--- a/Tables/multiple_loans.xlsx
+++ b/Tables/multiple_loans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D44809-83F9-4D59-A3BC-FC93A46D427C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E9C0CF-90AA-419D-BB7B-6D9285D6AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16230" yWindow="-10815" windowWidth="14400" windowHeight="8175" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
+    <workbookView xWindow="-15495" yWindow="-9000" windowWidth="14400" windowHeight="8175" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
   </bookViews>
   <sheets>
     <sheet name="multiple_loans" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-202.8***</v>
+            <v>-202.3***</v>
           </cell>
           <cell r="C8" t="str">
             <v>-0.11***</v>
@@ -272,7 +272,7 @@
             <v>-0.065***</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-175.2***</v>
+            <v>-175.0***</v>
           </cell>
           <cell r="G8" t="str">
             <v>-0.078***</v>
@@ -289,7 +289,7 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(48.1)</v>
+            <v>(48.2)</v>
           </cell>
           <cell r="C9" t="str">
             <v>(0.019)</v>
@@ -315,28 +315,28 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-39.6</v>
+            <v>-40.1</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.0089</v>
+            <v>-0.0077</v>
           </cell>
           <cell r="D11" t="str">
             <v>0.0094</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.024</v>
+            <v>-0.023</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-34.4</v>
+            <v>-35.9</v>
           </cell>
           <cell r="G11" t="str">
-            <v>0.0028</v>
+            <v>0.0026</v>
           </cell>
           <cell r="H11" t="str">
             <v>0.00054</v>
           </cell>
           <cell r="I11" t="str">
-            <v>-0.0049</v>
+            <v>-0.0046</v>
           </cell>
         </row>
         <row r="12">
@@ -356,7 +356,7 @@
             <v>(0.021)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>(43.5)</v>
+            <v>(43.8)</v>
           </cell>
           <cell r="G12" t="str">
             <v>(0.016)</v>
@@ -370,21 +370,21 @@
         </row>
         <row r="14">
           <cell r="J14" t="str">
-            <v>-159.1***</v>
+            <v>-161.3***</v>
           </cell>
           <cell r="K14" t="str">
-            <v>-0.086***</v>
+            <v>-0.087***</v>
           </cell>
           <cell r="L14" t="str">
             <v>0.11***</v>
           </cell>
           <cell r="M14" t="str">
-            <v>-0.051***</v>
+            <v>-0.052***</v>
           </cell>
         </row>
         <row r="15">
           <cell r="J15" t="str">
-            <v>(38.6)</v>
+            <v>(38.9)</v>
           </cell>
           <cell r="K15" t="str">
             <v>(0.015)</v>
@@ -398,10 +398,10 @@
         </row>
         <row r="17">
           <cell r="J17" t="str">
-            <v>-31.5</v>
+            <v>-36.3</v>
           </cell>
           <cell r="K17" t="str">
-            <v>-0.017</v>
+            <v>-0.019</v>
           </cell>
           <cell r="L17" t="str">
             <v>0.029</v>
@@ -508,7 +508,7 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B22" t="str">
-            <v>941.3</v>
+            <v>941.1</v>
           </cell>
           <cell r="C22" t="str">
             <v>0.57</v>
@@ -517,10 +517,10 @@
             <v>0.43</v>
           </cell>
           <cell r="E22" t="str">
-            <v>0.44</v>
+            <v>0.43</v>
           </cell>
           <cell r="F22" t="str">
-            <v>905.7</v>
+            <v>905.6</v>
           </cell>
           <cell r="G22" t="str">
             <v>0.54</v>
@@ -532,7 +532,7 @@
             <v>0.42</v>
           </cell>
           <cell r="J22" t="str">
-            <v>904.7</v>
+            <v>906.9</v>
           </cell>
           <cell r="K22" t="str">
             <v>0.55</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]multiple_loans!B8</f>
-        <v>-202.8***</v>
+        <v>-202.3***</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]multiple_loans!C8</f>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]multiple_loans!F8</f>
-        <v>-175.2***</v>
+        <v>-175.0***</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]multiple_loans!G8</f>
@@ -1028,11 +1028,11 @@
       </c>
       <c r="L7" s="1" t="str">
         <f>[1]multiple_loans!J14</f>
-        <v>-159.1***</v>
+        <v>-161.3***</v>
       </c>
       <c r="M7" s="1" t="str">
         <f>[1]multiple_loans!K14</f>
-        <v>-0.086***</v>
+        <v>-0.087***</v>
       </c>
       <c r="N7" s="1" t="str">
         <f>[1]multiple_loans!L14</f>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="O7" s="1" t="str">
         <f>[1]multiple_loans!M14</f>
-        <v>-0.051***</v>
+        <v>-0.052***</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]multiple_loans!B9</f>
-        <v>(48.1)</v>
+        <v>(48.2)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]multiple_loans!C9</f>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="L8" s="1" t="str">
         <f>[1]multiple_loans!J15</f>
-        <v>(38.6)</v>
+        <v>(38.9)</v>
       </c>
       <c r="M8" s="1" t="str">
         <f>[1]multiple_loans!K15</f>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>[1]multiple_loans!B11</f>
-        <v>-39.6</v>
+        <v>-40.1</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]multiple_loans!C11</f>
-        <v>-0.0089</v>
+        <v>-0.0077</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]multiple_loans!D11</f>
@@ -1115,15 +1115,15 @@
       </c>
       <c r="E9" s="1" t="str">
         <f>[1]multiple_loans!E11</f>
-        <v>-0.024</v>
+        <v>-0.023</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>[1]multiple_loans!F11</f>
-        <v>-34.4</v>
+        <v>-35.9</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>[1]multiple_loans!G11</f>
-        <v>0.0028</v>
+        <v>0.0026</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]multiple_loans!H11</f>
@@ -1131,15 +1131,15 @@
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]multiple_loans!I11</f>
-        <v>-0.0049</v>
+        <v>-0.0046</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>[1]multiple_loans!J17</f>
-        <v>-31.5</v>
+        <v>-36.3</v>
       </c>
       <c r="M9" s="1" t="str">
         <f>[1]multiple_loans!K17</f>
-        <v>-0.017</v>
+        <v>-0.019</v>
       </c>
       <c r="N9" s="1" t="str">
         <f>[1]multiple_loans!L17</f>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]multiple_loans!F12</f>
-        <v>(43.5)</v>
+        <v>(43.8)</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]multiple_loans!G12</f>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B14" s="9" t="str">
         <f>[1]multiple_loans!B22</f>
-        <v>941.3</v>
+        <v>941.1</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>[1]multiple_loans!C22</f>
@@ -1332,12 +1332,12 @@
       </c>
       <c r="E14" s="9" t="str">
         <f>[1]multiple_loans!E22</f>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="str">
         <f>[1]multiple_loans!F22</f>
-        <v>905.7</v>
+        <v>905.6</v>
       </c>
       <c r="H14" s="9" t="str">
         <f>[1]multiple_loans!G22</f>
@@ -1354,7 +1354,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="str">
         <f>[1]multiple_loans!J22</f>
-        <v>904.7</v>
+        <v>906.9</v>
       </c>
       <c r="M14" s="9" t="str">
         <f>[1]multiple_loans!K22</f>

--- a/Tables/multiple_loans.xlsx
+++ b/Tables/multiple_loans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E9C0CF-90AA-419D-BB7B-6D9285D6AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F741C38-03E0-476F-9890-A3D4A0D48E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15495" yWindow="-9000" windowWidth="14400" windowHeight="8175" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
+    <workbookView xWindow="-20985" yWindow="-14490" windowWidth="21600" windowHeight="11235" xr2:uid="{55E58D87-203D-4C8D-8D96-F27EBAE2ABA9}"/>
   </bookViews>
   <sheets>
     <sheet name="multiple_loans" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-202.3***</v>
+            <v>-204.0***</v>
           </cell>
           <cell r="C8" t="str">
             <v>-0.11***</v>
@@ -269,19 +269,19 @@
             <v>0.14***</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.065***</v>
+            <v>-0.066***</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-175.0***</v>
+            <v>-176.8***</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.078***</v>
+            <v>-0.080***</v>
           </cell>
           <cell r="H8" t="str">
             <v>0.099***</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-0.032</v>
+            <v>-0.033</v>
           </cell>
         </row>
         <row r="9">
@@ -289,7 +289,7 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(48.2)</v>
+            <v>(48.1)</v>
           </cell>
           <cell r="C9" t="str">
             <v>(0.019)</v>
@@ -315,10 +315,10 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-40.1</v>
+            <v>-38.9</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.0077</v>
+            <v>-0.0086</v>
           </cell>
           <cell r="D11" t="str">
             <v>0.0094</v>
@@ -327,16 +327,16 @@
             <v>-0.023</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-35.9</v>
+            <v>-33.3</v>
           </cell>
           <cell r="G11" t="str">
-            <v>0.0026</v>
+            <v>0.0037</v>
           </cell>
           <cell r="H11" t="str">
             <v>0.00054</v>
           </cell>
           <cell r="I11" t="str">
-            <v>-0.0046</v>
+            <v>-0.0042</v>
           </cell>
         </row>
         <row r="12">
@@ -356,7 +356,7 @@
             <v>(0.021)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>(43.8)</v>
+            <v>(43.9)</v>
           </cell>
           <cell r="G12" t="str">
             <v>(0.016)</v>
@@ -370,7 +370,7 @@
         </row>
         <row r="14">
           <cell r="J14" t="str">
-            <v>-161.3***</v>
+            <v>-161.5***</v>
           </cell>
           <cell r="K14" t="str">
             <v>-0.087***</v>
@@ -398,21 +398,21 @@
         </row>
         <row r="17">
           <cell r="J17" t="str">
-            <v>-36.3</v>
+            <v>-32.3</v>
           </cell>
           <cell r="K17" t="str">
-            <v>-0.019</v>
+            <v>-0.017</v>
           </cell>
           <cell r="L17" t="str">
             <v>0.029</v>
           </cell>
           <cell r="M17" t="str">
-            <v>-0.032*</v>
+            <v>-0.031*</v>
           </cell>
         </row>
         <row r="18">
           <cell r="J18" t="str">
-            <v>(40.4)</v>
+            <v>(40.6)</v>
           </cell>
           <cell r="K18" t="str">
             <v>(0.014)</v>
@@ -482,7 +482,7 @@
             <v>0.016</v>
           </cell>
           <cell r="G21" t="str">
-            <v>0.032</v>
+            <v>0.031</v>
           </cell>
           <cell r="H21" t="str">
             <v>0.018</v>
@@ -494,7 +494,7 @@
             <v>0.016</v>
           </cell>
           <cell r="K21" t="str">
-            <v>0.031</v>
+            <v>0.030</v>
           </cell>
           <cell r="L21" t="str">
             <v>0.020</v>
@@ -508,7 +508,7 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B22" t="str">
-            <v>941.1</v>
+            <v>942.4</v>
           </cell>
           <cell r="C22" t="str">
             <v>0.57</v>
@@ -517,10 +517,10 @@
             <v>0.43</v>
           </cell>
           <cell r="E22" t="str">
-            <v>0.43</v>
+            <v>0.44</v>
           </cell>
           <cell r="F22" t="str">
-            <v>905.6</v>
+            <v>907.9</v>
           </cell>
           <cell r="G22" t="str">
             <v>0.54</v>
@@ -532,7 +532,7 @@
             <v>0.42</v>
           </cell>
           <cell r="J22" t="str">
-            <v>906.9</v>
+            <v>907.9</v>
           </cell>
           <cell r="K22" t="str">
             <v>0.55</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]multiple_loans!B8</f>
-        <v>-202.3***</v>
+        <v>-204.0***</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]multiple_loans!C8</f>
@@ -1008,15 +1008,15 @@
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]multiple_loans!E8</f>
-        <v>-0.065***</v>
+        <v>-0.066***</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]multiple_loans!F8</f>
-        <v>-175.0***</v>
+        <v>-176.8***</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]multiple_loans!G8</f>
-        <v>-0.078***</v>
+        <v>-0.080***</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]multiple_loans!H8</f>
@@ -1024,11 +1024,11 @@
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]multiple_loans!I8</f>
-        <v>-0.032</v>
+        <v>-0.033</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>[1]multiple_loans!J14</f>
-        <v>-161.3***</v>
+        <v>-161.5***</v>
       </c>
       <c r="M7" s="1" t="str">
         <f>[1]multiple_loans!K14</f>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>[1]multiple_loans!B9</f>
-        <v>(48.2)</v>
+        <v>(48.1)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]multiple_loans!C9</f>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>[1]multiple_loans!B11</f>
-        <v>-40.1</v>
+        <v>-38.9</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]multiple_loans!C11</f>
-        <v>-0.0077</v>
+        <v>-0.0086</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]multiple_loans!D11</f>
@@ -1119,11 +1119,11 @@
       </c>
       <c r="G9" s="1" t="str">
         <f>[1]multiple_loans!F11</f>
-        <v>-35.9</v>
+        <v>-33.3</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>[1]multiple_loans!G11</f>
-        <v>0.0026</v>
+        <v>0.0037</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]multiple_loans!H11</f>
@@ -1131,15 +1131,15 @@
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]multiple_loans!I11</f>
-        <v>-0.0046</v>
+        <v>-0.0042</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>[1]multiple_loans!J17</f>
-        <v>-36.3</v>
+        <v>-32.3</v>
       </c>
       <c r="M9" s="1" t="str">
         <f>[1]multiple_loans!K17</f>
-        <v>-0.019</v>
+        <v>-0.017</v>
       </c>
       <c r="N9" s="1" t="str">
         <f>[1]multiple_loans!L17</f>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="O9" s="1" t="str">
         <f>[1]multiple_loans!M17</f>
-        <v>-0.032*</v>
+        <v>-0.031*</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]multiple_loans!F12</f>
-        <v>(43.8)</v>
+        <v>(43.9)</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]multiple_loans!G12</f>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f>[1]multiple_loans!J18</f>
-        <v>(40.4)</v>
+        <v>(40.6)</v>
       </c>
       <c r="M10" s="1" t="str">
         <f>[1]multiple_loans!K18</f>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H13" s="1" t="str">
         <f>[1]multiple_loans!G21</f>
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]multiple_loans!H21</f>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="M13" s="1" t="str">
         <f>[1]multiple_loans!K21</f>
-        <v>0.031</v>
+        <v>0.030</v>
       </c>
       <c r="N13" s="1" t="str">
         <f>[1]multiple_loans!L21</f>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B14" s="9" t="str">
         <f>[1]multiple_loans!B22</f>
-        <v>941.1</v>
+        <v>942.4</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>[1]multiple_loans!C22</f>
@@ -1332,12 +1332,12 @@
       </c>
       <c r="E14" s="9" t="str">
         <f>[1]multiple_loans!E22</f>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="str">
         <f>[1]multiple_loans!F22</f>
-        <v>905.6</v>
+        <v>907.9</v>
       </c>
       <c r="H14" s="9" t="str">
         <f>[1]multiple_loans!G22</f>
@@ -1354,7 +1354,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="str">
         <f>[1]multiple_loans!J22</f>
-        <v>906.9</v>
+        <v>907.9</v>
       </c>
       <c r="M14" s="9" t="str">
         <f>[1]multiple_loans!K22</f>
